--- a/pedroproject/Atalent_submissions.xlsx
+++ b/pedroproject/Atalent_submissions.xlsx
@@ -1331,12 +1331,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Injective Supporter</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-5 years</t>
+          <t>&lt;1 year</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Custom Rate</t>
+          <t>$0-$500</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Solidity</t>
+          <t>Rust, DAO Contributor</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1697944</t>
+          <t>1697931</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2025-12-19 00:47:05</t>
+          <t>2025-12-19 10:13:32</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Queued</t>
         </is>
       </c>
     </row>

--- a/pedroproject/Atalent_submissions.xlsx
+++ b/pedroproject/Atalent_submissions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11170" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submissions" sheetId="1" state="visible" r:id="rId1"/>
@@ -414,8 +414,8 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="T8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Injective Supporter</t>
+          <t>Injective Community Artist</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1356,17 +1356,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>$1,000-$2,500</t>
+          <t>$0-$500</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Solidity</t>
+          <t>Move</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>Ukrainian</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1697927</t>
+          <t>1697921</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1436,17 +1436,17 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+          <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2025-12-19 10:59:51</t>
+          <t>2025-12-19 15:39:15</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Queued</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>

--- a/pedroproject/Atalent_submissions.xlsx
+++ b/pedroproject/Atalent_submissions.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
@@ -551,6 +551,11 @@
           <t>Status</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Test Write</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1446,7 +1451,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
     </row>

--- a/pedroproject/Atalent_submissions.xlsx
+++ b/pedroproject/Atalent_submissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70710EE9-0BAB-4202-9FCC-8992D727FAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5593A9E8-1701-492C-BF08-FB64B395BD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="816" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Test Write</t>
   </si>
   <si>
     <t>Cid_Kagenou</t>
@@ -680,15 +677,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -767,64 +764,61 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
       <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
         <v>41</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -833,78 +827,78 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" t="s">
         <v>43</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" t="s">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
         <v>50</v>
       </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>51</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
         <v>52</v>
       </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -913,78 +907,78 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" t="s">
         <v>55</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>56</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -993,78 +987,78 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" t="s">
         <v>67</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>68</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>69</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="O5" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -1073,78 +1067,78 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V5" t="s">
         <v>78</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>79</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>80</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>81</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="Z5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
         <v>89</v>
       </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>90</v>
       </c>
-      <c r="O6" t="s">
-        <v>91</v>
-      </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -1153,78 +1147,78 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" t="s">
         <v>92</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>93</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>94</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>95</v>
       </c>
-      <c r="Y6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
         <v>98</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
         <v>99</v>
       </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>100</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>101</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>102</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>103</v>
       </c>
-      <c r="O7" t="s">
-        <v>104</v>
-      </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1233,22 +1227,22 @@
         <v>83501</v>
       </c>
       <c r="U7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s">
+        <v>103</v>
+      </c>
+      <c r="W7" t="s">
         <v>104</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>105</v>
-      </c>
-      <c r="X7" t="s">
-        <v>106</v>
       </c>
       <c r="Y7">
         <v>45810</v>
       </c>
       <c r="Z7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
